--- a/BTS_SIO--Tableau_de_synthese_-_Epreuve_E4.xlsx
+++ b/BTS_SIO--Tableau_de_synthese_-_Epreuve_E4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26648376-3555-4CF8-A3A6-A23CFE904246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D949AC-9E85-46FF-8A43-6917F01EC022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,67 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$21</definedName>
   </definedNames>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
+    <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
+  </si>
+  <si>
+    <t>NOM et prénom : Foulail Oumar</t>
+  </si>
+  <si>
+    <t>N° candidat : 100977981JG</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lycée Voillaume</t>
+  </si>
+  <si>
+    <t>Option :</t>
+  </si>
+  <si>
+    <t>▢ SISR</t>
+  </si>
+  <si>
+    <t>▢ SLAM</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :</t>
+  </si>
+  <si>
+    <t>Compétences mises en œuvre
+Réalisations professionnelles
+(intitulé et liste des documents et productions associés)</t>
+  </si>
+  <si>
+    <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
+  </si>
+  <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
   <si>
@@ -41,15 +95,6 @@
   </si>
   <si>
     <t>Organiser son développement professionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
-  </si>
-  <si>
-    <t>Option :</t>
   </si>
   <si>
     <t>▸Recenser et identifier les ressources numériques 
@@ -86,79 +131,50 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
   <si>
-    <t>Compétences mises en œuvre
-Réalisations professionnelles
-(intitulé et liste des documents et productions associés)</t>
-  </si>
-  <si>
-    <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
+    <t xml:space="preserve">Portfolio </t>
+  </si>
+  <si>
+    <t>GSB 1 (PHP)</t>
+  </si>
+  <si>
+    <t>GSB 2 (Laravel)</t>
+  </si>
+  <si>
+    <t>GSB 3 (Winforms)</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de première année (Mairie de la Courneuve)</t>
+  </si>
+  <si>
+    <t>Dépannage et replacement des postes</t>
+  </si>
+  <si>
+    <t>26/06/2022 à 24/06/2022</t>
+  </si>
+  <si>
+    <t>Installation de VPN dans chaque poste</t>
+  </si>
+  <si>
+    <t>Gérer le parc informatique</t>
+  </si>
+  <si>
+    <t>Intervention pour régler les problèmes</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
-    <t>SESSION 2023</t>
-  </si>
-  <si>
-    <t>NOM et prénom : Foulail Oumar</t>
-  </si>
-  <si>
-    <t>Centre de formation : Lycée Voillaume</t>
-  </si>
-  <si>
     <t>Création d'un site web pour l'entreprise Bureau 89</t>
   </si>
   <si>
-    <t xml:space="preserve">Portfolio </t>
-  </si>
-  <si>
-    <t>GSB 1 (PHP)</t>
-  </si>
-  <si>
-    <t>GSB 2 (Laravel)</t>
-  </si>
-  <si>
-    <t>GSB 3 (Winforms)</t>
-  </si>
-  <si>
-    <t>GLPI</t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel en cours de première année (Mairie de la Courneuve)</t>
-  </si>
-  <si>
-    <t>Dépannage et replacement des postes</t>
-  </si>
-  <si>
-    <t>Installation de VPN dans chaque poste</t>
-  </si>
-  <si>
-    <t>Gérer le parc informatique</t>
-  </si>
-  <si>
-    <t>Intervention pour régler les problèmes</t>
-  </si>
-  <si>
-    <t>26/06/2022 à 24/06/2022</t>
-  </si>
-  <si>
     <t>16/01/2023 à 13/03/2023</t>
-  </si>
-  <si>
-    <t>N° candidat : 100977981JG</t>
   </si>
 </sst>
 </file>
@@ -168,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,12 +692,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +769,12 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,9 +861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,9 +901,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,26 +936,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,26 +971,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1174,22 +1156,22 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" style="1" customWidth="1"/>
-    <col min="9" max="41" width="11.44140625" customWidth="1"/>
-    <col min="42" max="16384" width="10.88671875" style="1"/>
+    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
+    <col min="9" max="41" width="11.42578125" customWidth="1"/>
+    <col min="42" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1197,13 +1179,13 @@
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:41" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="41.1" customHeight="1" thickBot="1">
       <c r="A2" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1213,43 +1195,43 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
       <c r="F3" s="54" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="55"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="53"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -1259,52 +1241,52 @@
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
     </row>
-    <row r="6" spans="1:41" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="90" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
       <c r="A7" s="34"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1340,9 +1322,9 @@
       <c r="AN7"/>
       <c r="AO7"/>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="17.45">
       <c r="A8" s="36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
@@ -1385,19 +1367,19 @@
       <c r="AN8"/>
       <c r="AO8"/>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="24">
+    <row r="9" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="22">
         <v>44518</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="30"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="28"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1432,19 +1414,19 @@
       <c r="AN9"/>
       <c r="AO9"/>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="26">
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="24">
         <v>44886</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1479,19 +1461,19 @@
       <c r="AN10"/>
       <c r="AO10"/>
     </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="26">
+    <row r="11" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24">
         <v>44903</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="9"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1526,19 +1508,19 @@
       <c r="AN11"/>
       <c r="AO11"/>
     </row>
-    <row r="12" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="25">
+    <row r="12" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="23">
         <v>44939</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="30"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1573,19 +1555,19 @@
       <c r="AN12"/>
       <c r="AO12"/>
     </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="25">
+    <row r="13" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="23">
         <v>45002</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1620,9 +1602,9 @@
       <c r="AN13"/>
       <c r="AO13"/>
     </row>
-    <row r="14" spans="1:41" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" s="2" customFormat="1" ht="17.45">
       <c r="A14" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -1665,19 +1647,19 @@
       <c r="AN14"/>
       <c r="AO14"/>
     </row>
-    <row r="15" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1712,19 +1694,19 @@
       <c r="AN15"/>
       <c r="AO15"/>
     </row>
-    <row r="16" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="9"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1759,19 +1741,19 @@
       <c r="AN16"/>
       <c r="AO16"/>
     </row>
-    <row r="17" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="B17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1806,19 +1788,19 @@
       <c r="AN17"/>
       <c r="AO17"/>
     </row>
-    <row r="18" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1853,9 +1835,9 @@
       <c r="AN18"/>
       <c r="AO18"/>
     </row>
-    <row r="19" spans="1:41" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" s="2" customFormat="1" ht="17.45">
       <c r="A19" s="40" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -1898,19 +1880,19 @@
       <c r="AN19"/>
       <c r="AO19"/>
     </row>
-    <row r="20" spans="1:41" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:41" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="9"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1945,7 +1927,7 @@
       <c r="AN20"/>
       <c r="AO20"/>
     </row>
-    <row r="21" spans="1:41" s="2" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" s="2" customFormat="1" ht="59.45" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1988,52 +1970,52 @@
       <c r="AN21"/>
       <c r="AO21"/>
     </row>
-    <row r="22" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:41" customFormat="1"/>
+    <row r="23" spans="1:41" customFormat="1"/>
+    <row r="24" spans="1:41" customFormat="1"/>
+    <row r="25" spans="1:41" customFormat="1"/>
+    <row r="26" spans="1:41" customFormat="1"/>
+    <row r="27" spans="1:41" customFormat="1"/>
+    <row r="28" spans="1:41" customFormat="1"/>
+    <row r="29" spans="1:41" customFormat="1"/>
+    <row r="30" spans="1:41" customFormat="1"/>
+    <row r="31" spans="1:41" customFormat="1"/>
+    <row r="32" spans="1:41" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G1:H1"/>
